--- a/fastqFiles/fastq_480.xlsx
+++ b/fastqFiles/fastq_480.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574942EC-830A-F346-9EB8-EC7198976C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919FD47-E532-B743-B4BD-16BE77ED9480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>libraryDate</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B13 E2:E13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,7 +512,7 @@
         <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -529,7 +532,7 @@
         <v>480</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -549,7 +552,7 @@
         <v>480</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -569,7 +572,7 @@
         <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -589,7 +592,7 @@
         <v>480</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -609,7 +612,7 @@
         <v>480</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -629,7 +632,7 @@
         <v>480</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -649,7 +652,7 @@
         <v>480</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -669,7 +672,7 @@
         <v>480</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -689,7 +692,7 @@
         <v>480</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -709,7 +712,7 @@
         <v>480</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -729,7 +732,7 @@
         <v>480</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>

--- a/fastqFiles/fastq_480.xlsx
+++ b/fastqFiles/fastq_480.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">s_2_withindex_sequence_cir1_1_37CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_2_withindex_sequence_cir1_2_30.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">s_2_withindex_sequence_cir1_2_37CO2.fastq.gz</t>
@@ -89,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,6 +122,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,13 +179,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -198,8 +211,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -429,7 +442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>6</v>
       </c>
@@ -445,8 +458,8 @@
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>10</v>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_480.xlsx
+++ b/fastqFiles/fastq_480.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">

--- a/fastqFiles/fastq_480.xlsx
+++ b/fastqFiles/fastq_480.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">s_2_withindex_sequence_451_1_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[128]</t>
   </si>
   <si>
     <t xml:space="preserve">s_2_withindex_sequence_451_1_37CO2.fastq.gz</t>
@@ -192,7 +195,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,11 +254,11 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -272,16 +275,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -298,16 +301,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -324,16 +327,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -350,16 +353,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -376,16 +379,16 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -402,16 +405,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -428,16 +431,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -454,16 +457,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
@@ -480,16 +483,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
@@ -506,16 +509,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>9</v>
       </c>
@@ -532,13 +535,13 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>128</v>
+      <c r="I13" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
